--- a/source/poportion3.xlsx
+++ b/source/poportion3.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07729459414069344</v>
+        <v>0.1725824849516275</v>
       </c>
       <c r="D2">
-        <v>0.1377359958881698</v>
+        <v>0.1238313090770841</v>
       </c>
       <c r="E2">
-        <v>0.005873015873015874</v>
+        <v>0.002456239412761152</v>
       </c>
       <c r="F2">
-        <v>0.01496804910737425</v>
+        <v>0.05007082741467395</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01796574676804373</v>
       </c>
       <c r="H2">
-        <v>0.07793264750734416</v>
+        <v>0.05941955750078338</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07729459414069344</v>
+        <v>0.1725824849516275</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.04704932820585862</v>
+        <v>0.1938948125222635</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0618661841102786</v>
       </c>
       <c r="F3">
-        <v>0.09110563765736179</v>
+        <v>0.08463754844189625</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1256936924967616</v>
+        <v>0.1468265481828072</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1377359958881698</v>
+        <v>0.1238313090770841</v>
       </c>
       <c r="C4">
-        <v>0.04704932820585862</v>
+        <v>0.1938948125222635</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.03161781201254885</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1349691250985579</v>
+        <v>0.1795826378411355</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005873015873015874</v>
+        <v>0.002456239412761152</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0618661841102786</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.04326923076923077</v>
+        <v>0.04106280193236714</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.05001466808625121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01496804910737425</v>
+        <v>0.05007082741467395</v>
       </c>
       <c r="C6">
-        <v>0.09110563765736179</v>
+        <v>0.08463754844189625</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.03161781201254885</v>
       </c>
       <c r="E6">
-        <v>0.04326923076923077</v>
+        <v>0.04106280193236714</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02265520694259012</v>
+        <v>0.03164350308021416</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.01796574676804373</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -569,6 +569,9 @@
       </c>
       <c r="F7">
         <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -579,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07793264750734416</v>
+        <v>0.05941955750078338</v>
       </c>
       <c r="C8">
-        <v>0.1256936924967616</v>
+        <v>0.1468265481828072</v>
       </c>
       <c r="D8">
-        <v>0.1349691250985579</v>
+        <v>0.1795826378411355</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.05001466808625121</v>
       </c>
       <c r="F8">
-        <v>0.02265520694259012</v>
+        <v>0.03164350308021416</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/source/poportion3.xlsx
+++ b/source/poportion3.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1725824849516275</v>
+        <v>0.07729459414069344</v>
       </c>
       <c r="D2">
-        <v>0.1238313090770841</v>
+        <v>0.1377359958881698</v>
       </c>
       <c r="E2">
-        <v>0.002456239412761152</v>
+        <v>0.005873015873015874</v>
       </c>
       <c r="F2">
-        <v>0.05007082741467395</v>
+        <v>0.01496804910737425</v>
       </c>
       <c r="G2">
-        <v>0.01796574676804373</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.05941955750078338</v>
+        <v>0.07793264750734416</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1725824849516275</v>
+        <v>0.07729459414069344</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1938948125222635</v>
+        <v>0.04704932820585862</v>
       </c>
       <c r="E3">
-        <v>0.0618661841102786</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.08463754844189625</v>
+        <v>0.09110563765736179</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1468265481828072</v>
+        <v>0.1256936924967616</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1238313090770841</v>
+        <v>0.1377359958881698</v>
       </c>
       <c r="C4">
-        <v>0.1938948125222635</v>
+        <v>0.04704932820585862</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.03161781201254885</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1795826378411355</v>
+        <v>0.1349691250985579</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002456239412761152</v>
+        <v>0.005873015873015874</v>
       </c>
       <c r="C5">
-        <v>0.0618661841102786</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.04106280193236714</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.05001466808625121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,16 +530,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05007082741467395</v>
+        <v>0.01496804910737425</v>
       </c>
       <c r="C6">
-        <v>0.08463754844189625</v>
+        <v>0.09110563765736179</v>
       </c>
       <c r="D6">
-        <v>0.03161781201254885</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04106280193236714</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03164350308021416</v>
+        <v>0.02265520694259012</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,7 +556,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01796574676804373</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -569,9 +569,6 @@
       </c>
       <c r="F7">
         <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -582,19 +579,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05941955750078338</v>
+        <v>0.07793264750734416</v>
       </c>
       <c r="C8">
-        <v>0.1468265481828072</v>
+        <v>0.1256936924967616</v>
       </c>
       <c r="D8">
-        <v>0.1795826378411355</v>
+        <v>0.1349691250985579</v>
       </c>
       <c r="E8">
-        <v>0.05001466808625121</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03164350308021416</v>
+        <v>0.02265520694259012</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/source/poportion3.xlsx
+++ b/source/poportion3.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
     <t>ดัชมิลล์</t>
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07729459414069344</v>
+        <v>0.151559445686602</v>
       </c>
       <c r="D2">
-        <v>0.1377359958881698</v>
+        <v>0.1122611958020264</v>
       </c>
       <c r="E2">
-        <v>0.005873015873015874</v>
+        <v>0.005106138854403583</v>
       </c>
       <c r="F2">
-        <v>0.01496804910737425</v>
+        <v>0.01174810492247247</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0206753762110905</v>
       </c>
       <c r="H2">
-        <v>0.07793264750734416</v>
+        <v>0.01646794381026418</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07729459414069344</v>
+        <v>0.151559445686602</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.04704932820585862</v>
+        <v>0.207528726473645</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.09110563765736179</v>
+        <v>0.05428469806477192</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="H3">
-        <v>0.1256936924967616</v>
+        <v>0.1150699210800592</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1377359958881698</v>
+        <v>0.1122611958020264</v>
       </c>
       <c r="C4">
-        <v>0.04704932820585862</v>
+        <v>0.207528726473645</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.05124621951326003</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01629527673138221</v>
       </c>
       <c r="H4">
-        <v>0.1349691250985579</v>
+        <v>0.07933043988353244</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005873015873015874</v>
+        <v>0.005106138854403583</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.04326923076923077</v>
+        <v>0.1367477760334903</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01715758226252988</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01496804910737425</v>
+        <v>0.01174810492247247</v>
       </c>
       <c r="C6">
-        <v>0.09110563765736179</v>
+        <v>0.05428469806477192</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.05124621951326003</v>
       </c>
       <c r="E6">
-        <v>0.04326923076923077</v>
+        <v>0.1367477760334903</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.08774509803921569</v>
       </c>
       <c r="H6">
-        <v>0.02265520694259012</v>
+        <v>0.05336666883601344</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,19 +556,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.0206753762110905</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.002109704641350211</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.01629527673138221</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.08774509803921569</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -579,19 +582,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07793264750734416</v>
+        <v>0.01646794381026418</v>
       </c>
       <c r="C8">
-        <v>0.1256936924967616</v>
+        <v>0.1150699210800592</v>
       </c>
       <c r="D8">
-        <v>0.1349691250985579</v>
+        <v>0.07933043988353244</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01715758226252988</v>
       </c>
       <c r="F8">
-        <v>0.02265520694259012</v>
+        <v>0.05336666883601344</v>
       </c>
       <c r="G8">
         <v>0</v>
